--- a/Excel处理/easyPoi/n13Template.xlsx
+++ b/Excel处理/easyPoi/n13Template.xlsx
@@ -101,10 +101,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{$fe:list t.compText</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>t.deptText</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -184,53 +180,59 @@
     <t>t.n8Date</t>
   </si>
   <si>
+    <t>t.n9Week</t>
+  </si>
+  <si>
+    <t>t.n9Date</t>
+  </si>
+  <si>
+    <t>t.n9Amount</t>
+  </si>
+  <si>
+    <t>t.n10Week</t>
+  </si>
+  <si>
+    <t>t.n10Date</t>
+  </si>
+  <si>
+    <t>t.n10Amount</t>
+  </si>
+  <si>
+    <t>t.n11Week</t>
+  </si>
+  <si>
+    <t>t.n11Date</t>
+  </si>
+  <si>
+    <t>t.n12Week</t>
+  </si>
+  <si>
+    <t>t.n12Date</t>
+  </si>
+  <si>
+    <t>t.n12Amount</t>
+  </si>
+  <si>
+    <t>t.n13Date</t>
+  </si>
+  <si>
+    <t>t.n11Amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.n13Amount }}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.n13Week</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>t.n8Amount</t>
-  </si>
-  <si>
-    <t>t.n9Week</t>
-  </si>
-  <si>
-    <t>t.n9Date</t>
-  </si>
-  <si>
-    <t>t.n9Amount</t>
-  </si>
-  <si>
-    <t>t.n10Week</t>
-  </si>
-  <si>
-    <t>t.n10Date</t>
-  </si>
-  <si>
-    <t>t.n10Amount</t>
-  </si>
-  <si>
-    <t>t.n11Week</t>
-  </si>
-  <si>
-    <t>t.n11Date</t>
-  </si>
-  <si>
-    <t>t.n12Week</t>
-  </si>
-  <si>
-    <t>t.n12Date</t>
-  </si>
-  <si>
-    <t>t.n12Amount</t>
-  </si>
-  <si>
-    <t>t.n13Week</t>
-  </si>
-  <si>
-    <t>t.n13Date</t>
-  </si>
-  <si>
-    <t>t.n11Amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.n13Amount}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{!fe: entityList t.compText</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -306,13 +308,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -597,146 +599,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:38" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
     </row>
     <row r="2" spans="1:38" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3" t="s">
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3" t="s">
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3" t="s">
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3" t="s">
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3" t="s">
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3" t="s">
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
       <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
@@ -821,122 +823,127 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>32</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>33</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>34</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>35</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>36</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>37</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>40</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>41</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>42</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>43</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>44</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" t="s">
         <v>45</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>46</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>47</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>48</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>49</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>50</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>51</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>52</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG4" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
         <v>54</v>
       </c>
-      <c r="AF4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AI4" t="s">
         <v>55</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AJ4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK4" t="s">
         <v>56</v>
       </c>
-      <c r="AI4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" t="s">
         <v>58</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="A1:AL1"/>
@@ -953,11 +960,6 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
